--- a/data/trans_orig/CAL_SUEÑO_SATED-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CAL_SUEÑO_SATED-Estudios-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad del sueño</t>
+          <t>Calidad del sueño (tasa de respuesta: 95,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CAL_SUEÑO_SATED-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CAL_SUEÑO_SATED-Estudios-trans_orig.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,67</t>
+          <t>7,07; 7,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,52; 7,06</t>
+          <t>6,33; 6,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,81; 7,22</t>
+          <t>6,72; 7,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,37</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,51</t>
+          <t>7,25; 7,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,27</t>
+          <t>7,02; 7,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,34</t>
+          <t>7,18; 7,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,89</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 8,08</t>
+          <t>7,68; 8,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,58</t>
+          <t>7,25; 7,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,49; 7,75</t>
+          <t>7,51; 7,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,38; 7,6</t>
+          <t>7,42; 7,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,04; 7,25</t>
+          <t>7,07; 7,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 7,39</t>
+          <t>7,28; 7,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_orig/CAL_SUEÑO_SATED-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CAL_SUEÑO_SATED-Estudios-trans_orig.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7,98</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>7,44</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,98</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>7,43</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>6,63</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,43</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>7,67</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>6,94</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,67</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>7,74; 8,19</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>7,07; 7,77</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,74; 8,19</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>7,17; 7,65</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>6,33; 6,94</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>7,17; 7,65</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>7,51; 7,83</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>6,72; 7,18</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>7,51; 7,83</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>8,38</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>7,41</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,38</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>8,08</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>7,18</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,08</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>8,23</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7,29</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>8,24; 8,48</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>7,25; 7,56</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>8,24; 8,48</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>7,96; 8,2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>7,02; 7,33</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>7,96; 8,2</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>8,14; 8,31</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>7,18; 7,4</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>8,14; 8,31</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,59</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>7,92</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,59</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>8,34</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>7,47</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,34</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>8,46</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>7,68</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,46</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>8,42; 8,74</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>7,68; 8,11</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>8,42; 8,74</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>8,16; 8,5</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>7,25; 7,66</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>8,16; 8,5</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>8,34; 8,57</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>7,51; 7,82</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>8,34; 8,57</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8,38</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>7,56</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,38</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>8,04</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>7,19</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,04</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>7,37</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>8,2</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>8,29; 8,46</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>7,42; 7,67</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>8,29; 8,46</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>7,94; 8,13</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>7,07; 7,3</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,94; 8,13</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>8,14; 8,27</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>7,28; 7,44</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>8,14; 8,27</t>
         </is>
       </c>
     </row>
